--- a/biology/Médecine/Vestibule_(anatomie)/Vestibule_(anatomie).xlsx
+++ b/biology/Médecine/Vestibule_(anatomie)/Vestibule_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vestibule est la partie centrale du labyrinthe osseux de l'oreille interne. Il est situé entre les canaux semi-circulaires en arrière et la cochlée en avant. Il contient deux sacs reliés entre eux, l'utricule et le saccule. Ces sacs jouent un rôle dans l'équilibre, au sein du système vestibulaire[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vestibule est la partie centrale du labyrinthe osseux de l'oreille interne. Il est situé entre les canaux semi-circulaires en arrière et la cochlée en avant. Il contient deux sacs reliés entre eux, l'utricule et le saccule. Ces sacs jouent un rôle dans l'équilibre, au sein du système vestibulaire,.
 Étymologiquement, vestibule vient du latin vestibulum, littéralement le hall d’entrée.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Caractéristiques anatomiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En général, la forme du vestibule est celle d'un parallélépipède aplati de dehors en dedans, percé de plusieurs orifices, les fenêtres ovales, la cochlée et les 5 orifices des canaux semi-circulaires.
 La paroi externe : elle porte les deux orifices du canal semi-circulaire externe, et la fenêtre ovale.
@@ -548,7 +562,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vestibule possède des récepteurs qui renseignent en permanence le cerveau sur  la position et le mouvement de la tête, le vestibule permet de façon réflexe un mouvement de l’œil exactement opposé à celui de la tête permettant une vision claire malgré les mouvements de celle-ci.
 C’est également les récepteurs du vestibule qui permettent lorsque les repères visuels sont absents ou trop lointains de construire une référence verticale subjective.
@@ -580,9 +596,11 @@
           <t>Lésions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En cas de lésion du vestibule, les récepteurs qui renseignent le cerveau sur sa position sont alors défaillants résultant alors une sensation de vertige (notamment le vertige paroxystique bénin), des troubles de l'équilibre. Le corps possédant d’autres capteurs, les symptômes vont disparaître[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas de lésion du vestibule, les récepteurs qui renseignent le cerveau sur sa position sont alors défaillants résultant alors une sensation de vertige (notamment le vertige paroxystique bénin), des troubles de l'équilibre. Le corps possédant d’autres capteurs, les symptômes vont disparaître,.
 </t>
         </is>
       </c>
